--- a/output/#Summary_5Y.xlsx
+++ b/output/#Summary_5Y.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="19">
   <si>
     <t>Fund</t>
   </si>
@@ -39,6 +39,9 @@
   </si>
   <si>
     <t>Dividend</t>
+  </si>
+  <si>
+    <t>Wealth/Cost</t>
   </si>
   <si>
     <t>Code</t>
@@ -437,7 +440,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AK63"/>
+  <dimension ref="A1:AP63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -480,9 +483,14 @@
     <col min="35" max="35" width="12.7109375" style="2" customWidth="1"/>
     <col min="36" max="36" width="12.7109375" style="2" customWidth="1"/>
     <col min="37" max="37" width="12.7109375" style="2" customWidth="1"/>
+    <col min="38" max="38" width="12.7109375" style="4" customWidth="1"/>
+    <col min="39" max="39" width="12.7109375" style="4" customWidth="1"/>
+    <col min="40" max="40" width="12.7109375" style="4" customWidth="1"/>
+    <col min="41" max="41" width="12.7109375" style="4" customWidth="1"/>
+    <col min="42" max="42" width="12.7109375" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37">
+    <row r="1" spans="1:42">
       <c r="A1" s="5"/>
       <c r="B1" s="5" t="s">
         <v>0</v>
@@ -536,17 +544,24 @@
       <c r="AI1" s="5"/>
       <c r="AJ1" s="5"/>
       <c r="AK1" s="5"/>
+      <c r="AL1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="AM1" s="5"/>
+      <c r="AN1" s="5"/>
+      <c r="AO1" s="5"/>
+      <c r="AP1" s="5"/>
     </row>
-    <row r="2" spans="1:37">
+    <row r="2" spans="1:42">
       <c r="A2" s="5"/>
       <c r="B2" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>3</v>
@@ -558,107 +573,122 @@
         <v>5</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I2" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="M2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="N2" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="K2" s="5" t="s">
+      <c r="O2" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="L2" s="5" t="s">
+      <c r="P2" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="M2" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="N2" s="5" t="s">
+      <c r="Q2" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="R2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="O2" s="5" t="s">
+      <c r="S2" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="P2" s="5" t="s">
+      <c r="T2" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="Q2" s="5" t="s">
+      <c r="U2" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="R2" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="S2" s="5" t="s">
+      <c r="V2" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="W2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="T2" s="5" t="s">
+      <c r="X2" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="U2" s="5" t="s">
+      <c r="Y2" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="V2" s="5" t="s">
+      <c r="Z2" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="W2" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="X2" s="5" t="s">
+      <c r="AA2" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="AB2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="Y2" s="5" t="s">
+      <c r="AC2" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="Z2" s="5" t="s">
+      <c r="AD2" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="AA2" s="5" t="s">
+      <c r="AE2" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="AB2" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="AC2" s="5" t="s">
+      <c r="AF2" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="AG2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="AD2" s="5" t="s">
+      <c r="AH2" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="AE2" s="5" t="s">
+      <c r="AI2" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="AF2" s="5" t="s">
+      <c r="AJ2" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="AG2" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="AH2" s="5" t="s">
+      <c r="AK2" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="AL2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="AI2" s="5" t="s">
+      <c r="AM2" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="AJ2" s="5" t="s">
+      <c r="AN2" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="AK2" s="5" t="s">
+      <c r="AO2" s="5" t="s">
         <v>15</v>
       </c>
+      <c r="AP2" s="5" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="3" spans="1:37">
+    <row r="3" spans="1:42">
       <c r="A3" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:37">
+    <row r="4" spans="1:42">
       <c r="A4" s="5">
         <v>1</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C4" s="1">
         <v>1</v>
@@ -679,16 +709,16 @@
         <v>12.8468</v>
       </c>
       <c r="I4" s="2">
-        <v>12.0887</v>
+        <v>12.1027</v>
       </c>
       <c r="J4" s="2">
-        <v>12.2726</v>
+        <v>12.2845</v>
       </c>
       <c r="K4" s="2">
-        <v>12.4454</v>
+        <v>12.4555</v>
       </c>
       <c r="L4" s="2">
-        <v>12.6575</v>
+        <v>12.6652</v>
       </c>
       <c r="M4" s="3">
         <v>0.2506</v>
@@ -765,13 +795,28 @@
       <c r="AK4" s="2">
         <v>300338.9308</v>
       </c>
+      <c r="AL4" s="4">
+        <v>1.0301</v>
+      </c>
+      <c r="AM4" s="4">
+        <v>1.444</v>
+      </c>
+      <c r="AN4" s="4">
+        <v>1.2507</v>
+      </c>
+      <c r="AO4" s="4">
+        <v>1.0795</v>
+      </c>
+      <c r="AP4" s="4">
+        <v>1.0457</v>
+      </c>
     </row>
-    <row r="5" spans="1:37">
+    <row r="5" spans="1:42">
       <c r="A5" s="5">
         <v>2</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C5" s="1">
         <v>2</v>
@@ -792,16 +837,16 @@
         <v>12.9329</v>
       </c>
       <c r="I5" s="2">
-        <v>12.1832</v>
+        <v>12.1991</v>
       </c>
       <c r="J5" s="2">
-        <v>12.3605</v>
+        <v>12.3742</v>
       </c>
       <c r="K5" s="2">
-        <v>12.5276</v>
+        <v>12.5393</v>
       </c>
       <c r="L5" s="2">
-        <v>12.7613</v>
+        <v>12.7684</v>
       </c>
       <c r="M5" s="3">
         <v>0.2449</v>
@@ -878,13 +923,28 @@
       <c r="AK5" s="2">
         <v>289048.3576</v>
       </c>
+      <c r="AL5" s="4">
+        <v>1.0367</v>
+      </c>
+      <c r="AM5" s="4">
+        <v>1.5348</v>
+      </c>
+      <c r="AN5" s="4">
+        <v>1.3338</v>
+      </c>
+      <c r="AO5" s="4">
+        <v>1.1554</v>
+      </c>
+      <c r="AP5" s="4">
+        <v>1.05</v>
+      </c>
     </row>
-    <row r="6" spans="1:37">
+    <row r="6" spans="1:42">
       <c r="A6" s="5">
         <v>3</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C6" s="1">
         <v>3</v>
@@ -905,16 +965,16 @@
         <v>13.0284</v>
       </c>
       <c r="I6" s="2">
-        <v>12.2765</v>
+        <v>12.2933</v>
       </c>
       <c r="J6" s="2">
-        <v>12.4464</v>
+        <v>12.4608</v>
       </c>
       <c r="K6" s="2">
-        <v>12.6076</v>
+        <v>12.6198</v>
       </c>
       <c r="L6" s="2">
-        <v>12.8553</v>
+        <v>12.8619</v>
       </c>
       <c r="M6" s="3">
         <v>0.2255</v>
@@ -991,13 +1051,28 @@
       <c r="AK6" s="2">
         <v>296370.3387</v>
       </c>
+      <c r="AL6" s="4">
+        <v>0.9932</v>
+      </c>
+      <c r="AM6" s="4">
+        <v>1.5223</v>
+      </c>
+      <c r="AN6" s="4">
+        <v>1.3178</v>
+      </c>
+      <c r="AO6" s="4">
+        <v>1.1357</v>
+      </c>
+      <c r="AP6" s="4">
+        <v>1.0061</v>
+      </c>
     </row>
-    <row r="7" spans="1:37">
+    <row r="7" spans="1:42">
       <c r="A7" s="5">
         <v>4</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C7" s="1">
         <v>4</v>
@@ -1018,16 +1093,16 @@
         <v>13.0924</v>
       </c>
       <c r="I7" s="2">
-        <v>12.4212</v>
+        <v>12.4364</v>
       </c>
       <c r="J7" s="2">
-        <v>12.5701</v>
+        <v>12.5831</v>
       </c>
       <c r="K7" s="2">
-        <v>12.718</v>
+        <v>12.7287</v>
       </c>
       <c r="L7" s="2">
-        <v>12.9382</v>
+        <v>12.9442</v>
       </c>
       <c r="M7" s="3">
         <v>0.2178</v>
@@ -1104,13 +1179,28 @@
       <c r="AK7" s="2">
         <v>284875.079</v>
       </c>
+      <c r="AL7" s="4">
+        <v>1.038</v>
+      </c>
+      <c r="AM7" s="4">
+        <v>1.4828</v>
+      </c>
+      <c r="AN7" s="4">
+        <v>1.2907</v>
+      </c>
+      <c r="AO7" s="4">
+        <v>1.118</v>
+      </c>
+      <c r="AP7" s="4">
+        <v>1.0504</v>
+      </c>
     </row>
-    <row r="8" spans="1:37">
+    <row r="8" spans="1:42">
       <c r="A8" s="5">
         <v>5</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C8" s="1">
         <v>5</v>
@@ -1131,16 +1221,16 @@
         <v>13.1605</v>
       </c>
       <c r="I8" s="2">
-        <v>12.5014</v>
+        <v>12.5167</v>
       </c>
       <c r="J8" s="2">
-        <v>12.6431</v>
+        <v>12.6561</v>
       </c>
       <c r="K8" s="2">
-        <v>12.7901</v>
+        <v>12.8004</v>
       </c>
       <c r="L8" s="2">
-        <v>13.0207</v>
+        <v>13.0262</v>
       </c>
       <c r="M8" s="3">
         <v>0.2136</v>
@@ -1217,13 +1307,28 @@
       <c r="AK8" s="2">
         <v>273604.2807</v>
       </c>
+      <c r="AL8" s="4">
+        <v>1.0047</v>
+      </c>
+      <c r="AM8" s="4">
+        <v>1.488</v>
+      </c>
+      <c r="AN8" s="4">
+        <v>1.2935</v>
+      </c>
+      <c r="AO8" s="4">
+        <v>1.1174</v>
+      </c>
+      <c r="AP8" s="4">
+        <v>1.015</v>
+      </c>
     </row>
-    <row r="9" spans="1:37">
+    <row r="9" spans="1:42">
       <c r="A9" s="5">
         <v>6</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C9" s="1">
         <v>6</v>
@@ -1244,16 +1349,16 @@
         <v>13.2199</v>
       </c>
       <c r="I9" s="2">
-        <v>12.6133</v>
+        <v>12.6275</v>
       </c>
       <c r="J9" s="2">
-        <v>12.7416</v>
+        <v>12.7537</v>
       </c>
       <c r="K9" s="2">
-        <v>12.8817</v>
+        <v>12.8909</v>
       </c>
       <c r="L9" s="2">
-        <v>13.0947</v>
+        <v>13.0999</v>
       </c>
       <c r="M9" s="3">
         <v>0.2183</v>
@@ -1330,13 +1435,28 @@
       <c r="AK9" s="2">
         <v>286124.6074</v>
       </c>
+      <c r="AL9" s="4">
+        <v>1.0115</v>
+      </c>
+      <c r="AM9" s="4">
+        <v>1.4542</v>
+      </c>
+      <c r="AN9" s="4">
+        <v>1.2656</v>
+      </c>
+      <c r="AO9" s="4">
+        <v>1.0934</v>
+      </c>
+      <c r="AP9" s="4">
+        <v>1.0208</v>
+      </c>
     </row>
-    <row r="10" spans="1:37">
+    <row r="10" spans="1:42">
       <c r="A10" s="5">
         <v>7</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C10" s="1">
         <v>7</v>
@@ -1357,16 +1477,16 @@
         <v>13.2967</v>
       </c>
       <c r="I10" s="2">
-        <v>12.7226</v>
+        <v>12.7362</v>
       </c>
       <c r="J10" s="2">
-        <v>12.8388</v>
+        <v>12.8503</v>
       </c>
       <c r="K10" s="2">
-        <v>12.9738</v>
+        <v>12.9822</v>
       </c>
       <c r="L10" s="2">
-        <v>13.1815</v>
+        <v>13.1864</v>
       </c>
       <c r="M10" s="3">
         <v>0.2048</v>
@@ -1443,13 +1563,28 @@
       <c r="AK10" s="2">
         <v>274824.6962</v>
       </c>
+      <c r="AL10" s="4">
+        <v>1.0468</v>
+      </c>
+      <c r="AM10" s="4">
+        <v>1.4813</v>
+      </c>
+      <c r="AN10" s="4">
+        <v>1.2942</v>
+      </c>
+      <c r="AO10" s="4">
+        <v>1.122</v>
+      </c>
+      <c r="AP10" s="4">
+        <v>1.0562</v>
+      </c>
     </row>
-    <row r="11" spans="1:37">
+    <row r="11" spans="1:42">
       <c r="A11" s="5">
         <v>8</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C11" s="1">
         <v>8</v>
@@ -1470,16 +1605,16 @@
         <v>13.3656</v>
       </c>
       <c r="I11" s="2">
-        <v>12.8086</v>
+        <v>12.8216</v>
       </c>
       <c r="J11" s="2">
-        <v>12.9161</v>
+        <v>12.9271</v>
       </c>
       <c r="K11" s="2">
-        <v>13.0473</v>
+        <v>13.055</v>
       </c>
       <c r="L11" s="2">
-        <v>13.2627</v>
+        <v>13.267</v>
       </c>
       <c r="M11" s="3">
         <v>0.2086</v>
@@ -1556,13 +1691,28 @@
       <c r="AK11" s="2">
         <v>263824.8385</v>
       </c>
+      <c r="AL11" s="4">
+        <v>1.0226</v>
+      </c>
+      <c r="AM11" s="4">
+        <v>1.4812</v>
+      </c>
+      <c r="AN11" s="4">
+        <v>1.2945</v>
+      </c>
+      <c r="AO11" s="4">
+        <v>1.1216</v>
+      </c>
+      <c r="AP11" s="4">
+        <v>1.0302</v>
+      </c>
     </row>
-    <row r="12" spans="1:37">
+    <row r="12" spans="1:42">
       <c r="A12" s="5">
         <v>9</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C12" s="1">
         <v>9</v>
@@ -1583,16 +1733,16 @@
         <v>13.4347</v>
       </c>
       <c r="I12" s="2">
-        <v>12.9073</v>
+        <v>12.9196</v>
       </c>
       <c r="J12" s="2">
-        <v>13.0044</v>
+        <v>13.0149</v>
       </c>
       <c r="K12" s="2">
-        <v>13.129</v>
+        <v>13.1363</v>
       </c>
       <c r="L12" s="2">
-        <v>13.3395</v>
+        <v>13.3432</v>
       </c>
       <c r="M12" s="3">
         <v>0.1991</v>
@@ -1669,13 +1819,28 @@
       <c r="AK12" s="2">
         <v>270191.7818</v>
       </c>
+      <c r="AL12" s="4">
+        <v>0.991</v>
+      </c>
+      <c r="AM12" s="4">
+        <v>1.4329</v>
+      </c>
+      <c r="AN12" s="4">
+        <v>1.2486</v>
+      </c>
+      <c r="AO12" s="4">
+        <v>1.0772</v>
+      </c>
+      <c r="AP12" s="4">
+        <v>0.9977</v>
+      </c>
     </row>
-    <row r="13" spans="1:37">
+    <row r="13" spans="1:42">
       <c r="A13" s="5">
         <v>10</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C13" s="1">
         <v>10</v>
@@ -1696,16 +1861,16 @@
         <v>13.4884</v>
       </c>
       <c r="I13" s="2">
-        <v>13.0122</v>
+        <v>13.0235</v>
       </c>
       <c r="J13" s="2">
-        <v>13.0954</v>
+        <v>13.105</v>
       </c>
       <c r="K13" s="2">
-        <v>13.2078</v>
+        <v>13.2144</v>
       </c>
       <c r="L13" s="2">
-        <v>13.4137</v>
+        <v>13.4171</v>
       </c>
       <c r="M13" s="3">
         <v>0.1794</v>
@@ -1782,13 +1947,28 @@
       <c r="AK13" s="2">
         <v>258931.9063</v>
       </c>
+      <c r="AL13" s="4">
+        <v>0.9699</v>
+      </c>
+      <c r="AM13" s="4">
+        <v>1.3478</v>
+      </c>
+      <c r="AN13" s="4">
+        <v>1.1722</v>
+      </c>
+      <c r="AO13" s="4">
+        <v>1.0084</v>
+      </c>
+      <c r="AP13" s="4">
+        <v>0.9755</v>
+      </c>
     </row>
-    <row r="14" spans="1:37">
+    <row r="14" spans="1:42">
       <c r="A14" s="5">
         <v>11</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C14" s="1">
         <v>11</v>
@@ -1809,16 +1989,16 @@
         <v>13.5008</v>
       </c>
       <c r="I14" s="2">
-        <v>13.0709</v>
+        <v>13.0812</v>
       </c>
       <c r="J14" s="2">
-        <v>13.1406</v>
+        <v>13.1493</v>
       </c>
       <c r="K14" s="2">
-        <v>13.2464</v>
+        <v>13.2524</v>
       </c>
       <c r="L14" s="2">
-        <v>13.4547</v>
+        <v>13.4578</v>
       </c>
       <c r="M14" s="3">
         <v>0.188</v>
@@ -1895,13 +2075,28 @@
       <c r="AK14" s="2">
         <v>247973.1136</v>
       </c>
+      <c r="AL14" s="4">
+        <v>0.9705</v>
+      </c>
+      <c r="AM14" s="4">
+        <v>1.2974</v>
+      </c>
+      <c r="AN14" s="4">
+        <v>1.1311</v>
+      </c>
+      <c r="AO14" s="4">
+        <v>0.9887</v>
+      </c>
+      <c r="AP14" s="4">
+        <v>0.9736</v>
+      </c>
     </row>
-    <row r="15" spans="1:37">
+    <row r="15" spans="1:42">
       <c r="A15" s="5">
         <v>12</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C15" s="1">
         <v>12</v>
@@ -1922,16 +2117,16 @@
         <v>13.547</v>
       </c>
       <c r="I15" s="2">
-        <v>13.1455</v>
+        <v>13.1556</v>
       </c>
       <c r="J15" s="2">
-        <v>13.206</v>
+        <v>13.2144</v>
       </c>
       <c r="K15" s="2">
-        <v>13.3121</v>
+        <v>13.3175</v>
       </c>
       <c r="L15" s="2">
-        <v>13.518</v>
+        <v>13.5209</v>
       </c>
       <c r="M15" s="3">
         <v>0.1771</v>
@@ -2008,13 +2203,28 @@
       <c r="AK15" s="2">
         <v>253763.6603</v>
       </c>
+      <c r="AL15" s="4">
+        <v>0.9368</v>
+      </c>
+      <c r="AM15" s="4">
+        <v>1.2697</v>
+      </c>
+      <c r="AN15" s="4">
+        <v>1.1028</v>
+      </c>
+      <c r="AO15" s="4">
+        <v>0.9529</v>
+      </c>
+      <c r="AP15" s="4">
+        <v>0.9386</v>
+      </c>
     </row>
-    <row r="16" spans="1:37">
+    <row r="16" spans="1:42">
       <c r="A16" s="5">
         <v>13</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C16" s="1">
         <v>13</v>
@@ -2035,16 +2245,16 @@
         <v>13.5777</v>
       </c>
       <c r="I16" s="2">
-        <v>13.1993</v>
+        <v>13.2084</v>
       </c>
       <c r="J16" s="2">
-        <v>13.2459</v>
+        <v>13.2536</v>
       </c>
       <c r="K16" s="2">
-        <v>13.3785</v>
+        <v>13.3834</v>
       </c>
       <c r="L16" s="2">
-        <v>13.5715</v>
+        <v>13.574</v>
       </c>
       <c r="M16" s="3">
         <v>0.1585</v>
@@ -2121,13 +2331,28 @@
       <c r="AK16" s="2">
         <v>242635.0872</v>
       </c>
+      <c r="AL16" s="4">
+        <v>0.9351</v>
+      </c>
+      <c r="AM16" s="4">
+        <v>1.2092</v>
+      </c>
+      <c r="AN16" s="4">
+        <v>1.0503</v>
+      </c>
+      <c r="AO16" s="4">
+        <v>0.9492</v>
+      </c>
+      <c r="AP16" s="4">
+        <v>0.9358</v>
+      </c>
     </row>
-    <row r="17" spans="1:37">
+    <row r="17" spans="1:42">
       <c r="A17" s="5">
         <v>14</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C17" s="1">
         <v>14</v>
@@ -2148,16 +2373,16 @@
         <v>13.5635</v>
       </c>
       <c r="I17" s="2">
-        <v>13.2257</v>
+        <v>13.2342</v>
       </c>
       <c r="J17" s="2">
-        <v>13.263</v>
+        <v>13.27</v>
       </c>
       <c r="K17" s="2">
-        <v>13.4027</v>
+        <v>13.4067</v>
       </c>
       <c r="L17" s="2">
-        <v>13.5843</v>
+        <v>13.5863</v>
       </c>
       <c r="M17" s="3">
         <v>0.16</v>
@@ -2234,13 +2459,28 @@
       <c r="AK17" s="2">
         <v>231838.0203</v>
       </c>
+      <c r="AL17" s="4">
+        <v>0.9311</v>
+      </c>
+      <c r="AM17" s="4">
+        <v>1.1832</v>
+      </c>
+      <c r="AN17" s="4">
+        <v>1.0293</v>
+      </c>
+      <c r="AO17" s="4">
+        <v>0.9419999999999999</v>
+      </c>
+      <c r="AP17" s="4">
+        <v>0.9296</v>
+      </c>
     </row>
-    <row r="18" spans="1:37">
+    <row r="18" spans="1:42">
       <c r="A18" s="5">
         <v>15</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C18" s="1">
         <v>15</v>
@@ -2261,16 +2501,16 @@
         <v>13.5832</v>
       </c>
       <c r="I18" s="2">
-        <v>13.2796</v>
+        <v>13.2876</v>
       </c>
       <c r="J18" s="2">
-        <v>13.3099</v>
+        <v>13.3164</v>
       </c>
       <c r="K18" s="2">
-        <v>13.4502</v>
+        <v>13.4533</v>
       </c>
       <c r="L18" s="2">
-        <v>13.628</v>
+        <v>13.6296</v>
       </c>
       <c r="M18" s="3">
         <v>0.1536</v>
@@ -2347,13 +2587,28 @@
       <c r="AK18" s="2">
         <v>237359.6504</v>
       </c>
+      <c r="AL18" s="4">
+        <v>0.8989</v>
+      </c>
+      <c r="AM18" s="4">
+        <v>1.1508</v>
+      </c>
+      <c r="AN18" s="4">
+        <v>0.9966</v>
+      </c>
+      <c r="AO18" s="4">
+        <v>0.9076</v>
+      </c>
+      <c r="AP18" s="4">
+        <v>0.8958</v>
+      </c>
     </row>
-    <row r="19" spans="1:37">
+    <row r="19" spans="1:42">
       <c r="A19" s="5">
         <v>16</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C19" s="1">
         <v>16</v>
@@ -2374,16 +2629,16 @@
         <v>13.5931</v>
       </c>
       <c r="I19" s="2">
-        <v>13.2894</v>
+        <v>13.2966</v>
       </c>
       <c r="J19" s="2">
-        <v>13.3089</v>
+        <v>13.3147</v>
       </c>
       <c r="K19" s="2">
-        <v>13.4939</v>
+        <v>13.4963</v>
       </c>
       <c r="L19" s="2">
-        <v>13.6729</v>
+        <v>13.6739</v>
       </c>
       <c r="M19" s="3">
         <v>0.1374</v>
@@ -2460,13 +2715,28 @@
       <c r="AK19" s="2">
         <v>226580.6409</v>
       </c>
+      <c r="AL19" s="4">
+        <v>0.9122</v>
+      </c>
+      <c r="AM19" s="4">
+        <v>1.1124</v>
+      </c>
+      <c r="AN19" s="4">
+        <v>0.9649</v>
+      </c>
+      <c r="AO19" s="4">
+        <v>0.9192</v>
+      </c>
+      <c r="AP19" s="4">
+        <v>0.9072</v>
+      </c>
     </row>
-    <row r="20" spans="1:37">
+    <row r="20" spans="1:42">
       <c r="A20" s="5">
         <v>17</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C20" s="1">
         <v>17</v>
@@ -2487,16 +2757,16 @@
         <v>13.5578</v>
       </c>
       <c r="I20" s="2">
-        <v>13.305</v>
+        <v>13.3116</v>
       </c>
       <c r="J20" s="2">
-        <v>13.3172</v>
+        <v>13.3225</v>
       </c>
       <c r="K20" s="2">
-        <v>13.4939</v>
+        <v>13.4959</v>
       </c>
       <c r="L20" s="2">
-        <v>13.6567</v>
+        <v>13.6572</v>
       </c>
       <c r="M20" s="3">
         <v>0.1181</v>
@@ -2573,13 +2843,28 @@
       <c r="AK20" s="2">
         <v>216282.9729</v>
       </c>
+      <c r="AL20" s="4">
+        <v>0.8697</v>
+      </c>
+      <c r="AM20" s="4">
+        <v>1.0666</v>
+      </c>
+      <c r="AN20" s="4">
+        <v>0.9213</v>
+      </c>
+      <c r="AO20" s="4">
+        <v>0.8737</v>
+      </c>
+      <c r="AP20" s="4">
+        <v>0.8633</v>
+      </c>
     </row>
-    <row r="21" spans="1:37">
+    <row r="21" spans="1:42">
       <c r="A21" s="5">
         <v>18</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C21" s="1">
         <v>18</v>
@@ -2600,16 +2885,16 @@
         <v>13.5279</v>
       </c>
       <c r="I21" s="2">
-        <v>13.2673</v>
+        <v>13.2731</v>
       </c>
       <c r="J21" s="2">
-        <v>13.2732</v>
+        <v>13.2778</v>
       </c>
       <c r="K21" s="2">
-        <v>13.5034</v>
+        <v>13.5051</v>
       </c>
       <c r="L21" s="2">
-        <v>13.6515</v>
+        <v>13.6517</v>
       </c>
       <c r="M21" s="3">
         <v>0.08799999999999999</v>
@@ -2686,13 +2971,28 @@
       <c r="AK21" s="2">
         <v>222327.2413</v>
       </c>
+      <c r="AL21" s="4">
+        <v>0.8289</v>
+      </c>
+      <c r="AM21" s="4">
+        <v>0.9849</v>
+      </c>
+      <c r="AN21" s="4">
+        <v>0.8444</v>
+      </c>
+      <c r="AO21" s="4">
+        <v>0.8303</v>
+      </c>
+      <c r="AP21" s="4">
+        <v>0.8213</v>
+      </c>
     </row>
-    <row r="22" spans="1:37">
+    <row r="22" spans="1:42">
       <c r="A22" s="5">
         <v>19</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C22" s="1">
         <v>19</v>
@@ -2713,16 +3013,16 @@
         <v>13.4655</v>
       </c>
       <c r="I22" s="2">
-        <v>13.1473</v>
+        <v>13.1523</v>
       </c>
       <c r="J22" s="2">
-        <v>13.2578</v>
+        <v>13.2621</v>
       </c>
       <c r="K22" s="2">
-        <v>13.4774</v>
+        <v>13.4789</v>
       </c>
       <c r="L22" s="2">
-        <v>13.6156</v>
+        <v>13.6157</v>
       </c>
       <c r="M22" s="3">
         <v>0.0687</v>
@@ -2799,13 +3099,28 @@
       <c r="AK22" s="2">
         <v>213025.9013</v>
       </c>
+      <c r="AL22" s="4">
+        <v>0.8215</v>
+      </c>
+      <c r="AM22" s="4">
+        <v>0.9256</v>
+      </c>
+      <c r="AN22" s="4">
+        <v>0.8346</v>
+      </c>
+      <c r="AO22" s="4">
+        <v>0.8212</v>
+      </c>
+      <c r="AP22" s="4">
+        <v>0.8129</v>
+      </c>
     </row>
-    <row r="23" spans="1:37">
+    <row r="23" spans="1:42">
       <c r="A23" s="5">
         <v>20</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C23" s="1">
         <v>20</v>
@@ -2826,16 +3141,16 @@
         <v>13.3234</v>
       </c>
       <c r="I23" s="2">
-        <v>13.0203</v>
+        <v>13.0247</v>
       </c>
       <c r="J23" s="2">
-        <v>13.1614</v>
+        <v>13.1653</v>
       </c>
       <c r="K23" s="2">
-        <v>13.3654</v>
+        <v>13.3667</v>
       </c>
       <c r="L23" s="2">
-        <v>13.4919</v>
+        <v>13.4921</v>
       </c>
       <c r="M23" s="3">
         <v>0.0742</v>
@@ -2912,13 +3227,28 @@
       <c r="AK23" s="2">
         <v>204177.2431</v>
       </c>
+      <c r="AL23" s="4">
+        <v>0.843</v>
+      </c>
+      <c r="AM23" s="4">
+        <v>0.9275</v>
+      </c>
+      <c r="AN23" s="4">
+        <v>0.8531</v>
+      </c>
+      <c r="AO23" s="4">
+        <v>0.8403</v>
+      </c>
+      <c r="AP23" s="4">
+        <v>0.8325</v>
+      </c>
     </row>
-    <row r="24" spans="1:37">
+    <row r="24" spans="1:42">
       <c r="A24" s="5">
         <v>21</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C24" s="1">
         <v>21</v>
@@ -2939,16 +3269,16 @@
         <v>13.2699</v>
       </c>
       <c r="I24" s="2">
-        <v>13.0521</v>
+        <v>13.0574</v>
       </c>
       <c r="J24" s="2">
-        <v>13.131</v>
+        <v>13.1345</v>
       </c>
       <c r="K24" s="2">
-        <v>13.3236</v>
+        <v>13.3247</v>
       </c>
       <c r="L24" s="2">
-        <v>13.4419</v>
+        <v>13.4422</v>
       </c>
       <c r="M24" s="3">
         <v>0.0674</v>
@@ -3025,13 +3355,28 @@
       <c r="AK24" s="2">
         <v>211361.7969</v>
       </c>
+      <c r="AL24" s="4">
+        <v>0.7948</v>
+      </c>
+      <c r="AM24" s="4">
+        <v>0.903</v>
+      </c>
+      <c r="AN24" s="4">
+        <v>0.803</v>
+      </c>
+      <c r="AO24" s="4">
+        <v>0.7915</v>
+      </c>
+      <c r="AP24" s="4">
+        <v>0.7846</v>
+      </c>
     </row>
-    <row r="25" spans="1:37">
+    <row r="25" spans="1:42">
       <c r="A25" s="5">
         <v>22</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C25" s="1">
         <v>22</v>
@@ -3052,16 +3397,16 @@
         <v>13.1946</v>
       </c>
       <c r="I25" s="2">
-        <v>12.8664</v>
+        <v>12.871</v>
       </c>
       <c r="J25" s="2">
-        <v>13.0989</v>
+        <v>13.1019</v>
       </c>
       <c r="K25" s="2">
-        <v>13.2792</v>
+        <v>13.2801</v>
       </c>
       <c r="L25" s="2">
-        <v>13.3883</v>
+        <v>13.3886</v>
       </c>
       <c r="M25" s="3">
         <v>0.0589</v>
@@ -3138,13 +3483,28 @@
       <c r="AK25" s="2">
         <v>202869.3695</v>
       </c>
+      <c r="AL25" s="4">
+        <v>0.7736</v>
+      </c>
+      <c r="AM25" s="4">
+        <v>0.8273</v>
+      </c>
+      <c r="AN25" s="4">
+        <v>0.7795</v>
+      </c>
+      <c r="AO25" s="4">
+        <v>0.769</v>
+      </c>
+      <c r="AP25" s="4">
+        <v>0.7628</v>
+      </c>
     </row>
-    <row r="26" spans="1:37">
+    <row r="26" spans="1:42">
       <c r="A26" s="5">
         <v>23</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C26" s="1">
         <v>23</v>
@@ -3165,16 +3525,16 @@
         <v>13.021</v>
       </c>
       <c r="I26" s="2">
-        <v>12.6586</v>
+        <v>12.6626</v>
       </c>
       <c r="J26" s="2">
-        <v>12.9739</v>
+        <v>12.9765</v>
       </c>
       <c r="K26" s="2">
-        <v>13.1391</v>
+        <v>13.1399</v>
       </c>
       <c r="L26" s="2">
-        <v>13.2366</v>
+        <v>13.2369</v>
       </c>
       <c r="M26" s="3">
         <v>0.0781</v>
@@ -3251,13 +3611,28 @@
       <c r="AK26" s="2">
         <v>194439.9722</v>
       </c>
+      <c r="AL26" s="4">
+        <v>0.7669</v>
+      </c>
+      <c r="AM26" s="4">
+        <v>0.7915</v>
+      </c>
+      <c r="AN26" s="4">
+        <v>0.7696</v>
+      </c>
+      <c r="AO26" s="4">
+        <v>0.76</v>
+      </c>
+      <c r="AP26" s="4">
+        <v>0.7544</v>
+      </c>
     </row>
-    <row r="27" spans="1:37">
+    <row r="27" spans="1:42">
       <c r="A27" s="5">
         <v>24</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C27" s="1">
         <v>24</v>
@@ -3278,16 +3653,16 @@
         <v>12.9559</v>
       </c>
       <c r="I27" s="2">
-        <v>12.6438</v>
+        <v>12.6475</v>
       </c>
       <c r="J27" s="2">
-        <v>12.9515</v>
+        <v>12.9536</v>
       </c>
       <c r="K27" s="2">
-        <v>13.1045</v>
+        <v>13.1052</v>
       </c>
       <c r="L27" s="2">
-        <v>13.1953</v>
+        <v>13.1955</v>
       </c>
       <c r="M27" s="3">
         <v>0.0795</v>
@@ -3364,13 +3739,28 @@
       <c r="AK27" s="2">
         <v>201656.7807</v>
       </c>
+      <c r="AL27" s="4">
+        <v>0.7713</v>
+      </c>
+      <c r="AM27" s="4">
+        <v>0.7901</v>
+      </c>
+      <c r="AN27" s="4">
+        <v>0.7714</v>
+      </c>
+      <c r="AO27" s="4">
+        <v>0.7625</v>
+      </c>
+      <c r="AP27" s="4">
+        <v>0.7573</v>
+      </c>
     </row>
-    <row r="28" spans="1:37">
+    <row r="28" spans="1:42">
       <c r="A28" s="5">
         <v>25</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C28" s="1">
         <v>25</v>
@@ -3391,16 +3781,16 @@
         <v>12.9</v>
       </c>
       <c r="I28" s="2">
-        <v>12.6426</v>
+        <v>12.646</v>
       </c>
       <c r="J28" s="2">
-        <v>12.933</v>
+        <v>12.9346</v>
       </c>
       <c r="K28" s="2">
-        <v>13.0746</v>
+        <v>13.0751</v>
       </c>
       <c r="L28" s="2">
-        <v>13.1573</v>
+        <v>13.1574</v>
       </c>
       <c r="M28" s="3">
         <v>0.0804</v>
@@ -3477,13 +3867,28 @@
       <c r="AK28" s="2">
         <v>192879.3581</v>
       </c>
+      <c r="AL28" s="4">
+        <v>0.8292</v>
+      </c>
+      <c r="AM28" s="4">
+        <v>0.8463000000000001</v>
+      </c>
+      <c r="AN28" s="4">
+        <v>0.8275</v>
+      </c>
+      <c r="AO28" s="4">
+        <v>0.8186</v>
+      </c>
+      <c r="AP28" s="4">
+        <v>0.8134</v>
+      </c>
     </row>
-    <row r="29" spans="1:37">
+    <row r="29" spans="1:42">
       <c r="A29" s="5">
         <v>26</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C29" s="1">
         <v>26</v>
@@ -3504,13 +3909,13 @@
         <v>12.8003</v>
       </c>
       <c r="I29" s="2">
-        <v>12.6994</v>
+        <v>12.7031</v>
       </c>
       <c r="J29" s="2">
-        <v>12.8492</v>
+        <v>12.8506</v>
       </c>
       <c r="K29" s="2">
-        <v>12.9774</v>
+        <v>12.9778</v>
       </c>
       <c r="L29" s="2">
         <v>13.0513</v>
@@ -3590,13 +3995,28 @@
       <c r="AK29" s="2">
         <v>184449.0308</v>
       </c>
+      <c r="AL29" s="4">
+        <v>0.8057</v>
+      </c>
+      <c r="AM29" s="4">
+        <v>0.8571</v>
+      </c>
+      <c r="AN29" s="4">
+        <v>0.8026</v>
+      </c>
+      <c r="AO29" s="4">
+        <v>0.7947</v>
+      </c>
+      <c r="AP29" s="4">
+        <v>0.7902</v>
+      </c>
     </row>
-    <row r="30" spans="1:37">
+    <row r="30" spans="1:42">
       <c r="A30" s="5">
         <v>27</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C30" s="1">
         <v>27</v>
@@ -3617,13 +4037,13 @@
         <v>12.7433</v>
       </c>
       <c r="I30" s="2">
-        <v>12.6353</v>
+        <v>12.6384</v>
       </c>
       <c r="J30" s="2">
-        <v>12.8102</v>
+        <v>12.8113</v>
       </c>
       <c r="K30" s="2">
-        <v>12.9305</v>
+        <v>12.9308</v>
       </c>
       <c r="L30" s="2">
         <v>12.9979</v>
@@ -3703,13 +4123,28 @@
       <c r="AK30" s="2">
         <v>203196.9577</v>
       </c>
+      <c r="AL30" s="4">
+        <v>0.7741</v>
+      </c>
+      <c r="AM30" s="4">
+        <v>0.8101</v>
+      </c>
+      <c r="AN30" s="4">
+        <v>0.77</v>
+      </c>
+      <c r="AO30" s="4">
+        <v>0.7629</v>
+      </c>
+      <c r="AP30" s="4">
+        <v>0.759</v>
+      </c>
     </row>
-    <row r="31" spans="1:37">
+    <row r="31" spans="1:42">
       <c r="A31" s="5">
         <v>28</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C31" s="1">
         <v>28</v>
@@ -3730,13 +4165,13 @@
         <v>12.6701</v>
       </c>
       <c r="I31" s="2">
-        <v>12.5113</v>
+        <v>12.5137</v>
       </c>
       <c r="J31" s="2">
-        <v>12.7645</v>
+        <v>12.7654</v>
       </c>
       <c r="K31" s="2">
-        <v>12.8762</v>
+        <v>12.8764</v>
       </c>
       <c r="L31" s="2">
         <v>12.9373</v>
@@ -3816,13 +4251,28 @@
       <c r="AK31" s="2">
         <v>194915.9715</v>
       </c>
+      <c r="AL31" s="4">
+        <v>0.8193</v>
+      </c>
+      <c r="AM31" s="4">
+        <v>0.8292</v>
+      </c>
+      <c r="AN31" s="4">
+        <v>0.8139</v>
+      </c>
+      <c r="AO31" s="4">
+        <v>0.8069</v>
+      </c>
+      <c r="AP31" s="4">
+        <v>0.8031</v>
+      </c>
     </row>
-    <row r="32" spans="1:37">
+    <row r="32" spans="1:42">
       <c r="A32" s="5">
         <v>29</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C32" s="1">
         <v>29</v>
@@ -3843,13 +4293,13 @@
         <v>12.505</v>
       </c>
       <c r="I32" s="2">
-        <v>12.463</v>
+        <v>12.4652</v>
       </c>
       <c r="J32" s="2">
-        <v>12.6124</v>
+        <v>12.613</v>
       </c>
       <c r="K32" s="2">
-        <v>12.7101</v>
+        <v>12.7102</v>
       </c>
       <c r="L32" s="2">
         <v>12.763</v>
@@ -3929,13 +4379,28 @@
       <c r="AK32" s="2">
         <v>186547.2935</v>
       </c>
+      <c r="AL32" s="4">
+        <v>0.8372000000000001</v>
+      </c>
+      <c r="AM32" s="4">
+        <v>0.8647</v>
+      </c>
+      <c r="AN32" s="4">
+        <v>0.8300999999999999</v>
+      </c>
+      <c r="AO32" s="4">
+        <v>0.8237</v>
+      </c>
+      <c r="AP32" s="4">
+        <v>0.8203</v>
+      </c>
     </row>
-    <row r="33" spans="1:37">
+    <row r="33" spans="1:42">
       <c r="A33" s="5">
         <v>30</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C33" s="1">
         <v>30</v>
@@ -3956,10 +4421,10 @@
         <v>12.4693</v>
       </c>
       <c r="I33" s="2">
-        <v>12.5186</v>
+        <v>12.5221</v>
       </c>
       <c r="J33" s="2">
-        <v>12.5695</v>
+        <v>12.5698</v>
       </c>
       <c r="K33" s="2">
         <v>12.6596</v>
@@ -4042,13 +4507,28 @@
       <c r="AK33" s="2">
         <v>178641.42</v>
       </c>
+      <c r="AL33" s="4">
+        <v>0.8508</v>
+      </c>
+      <c r="AM33" s="4">
+        <v>0.9122</v>
+      </c>
+      <c r="AN33" s="4">
+        <v>0.844</v>
+      </c>
+      <c r="AO33" s="4">
+        <v>0.8381</v>
+      </c>
+      <c r="AP33" s="4">
+        <v>0.8349</v>
+      </c>
     </row>
-    <row r="34" spans="1:37">
+    <row r="34" spans="1:42">
       <c r="A34" s="5">
         <v>31</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C34" s="1">
         <v>31</v>
@@ -4069,10 +4549,10 @@
         <v>12.437</v>
       </c>
       <c r="I34" s="2">
-        <v>12.5049</v>
+        <v>12.5082</v>
       </c>
       <c r="J34" s="2">
-        <v>12.5351</v>
+        <v>12.5352</v>
       </c>
       <c r="K34" s="2">
         <v>12.6179</v>
@@ -4155,13 +4635,28 @@
       <c r="AK34" s="2">
         <v>171042.8654</v>
       </c>
+      <c r="AL34" s="4">
+        <v>0.8279</v>
+      </c>
+      <c r="AM34" s="4">
+        <v>0.8951</v>
+      </c>
+      <c r="AN34" s="4">
+        <v>0.8214</v>
+      </c>
+      <c r="AO34" s="4">
+        <v>0.8161</v>
+      </c>
+      <c r="AP34" s="4">
+        <v>0.8133</v>
+      </c>
     </row>
-    <row r="35" spans="1:37">
+    <row r="35" spans="1:42">
       <c r="A35" s="5">
         <v>32</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C35" s="1">
         <v>32</v>
@@ -4182,10 +4677,10 @@
         <v>12.4087</v>
       </c>
       <c r="I35" s="2">
-        <v>12.422</v>
+        <v>12.4249</v>
       </c>
       <c r="J35" s="2">
-        <v>12.5186</v>
+        <v>12.5187</v>
       </c>
       <c r="K35" s="2">
         <v>12.5929</v>
@@ -4268,13 +4763,28 @@
       <c r="AK35" s="2">
         <v>163009.0801</v>
       </c>
+      <c r="AL35" s="4">
+        <v>0.8235</v>
+      </c>
+      <c r="AM35" s="4">
+        <v>0.8612</v>
+      </c>
+      <c r="AN35" s="4">
+        <v>0.8163</v>
+      </c>
+      <c r="AO35" s="4">
+        <v>0.8115</v>
+      </c>
+      <c r="AP35" s="4">
+        <v>0.8092</v>
+      </c>
     </row>
-    <row r="36" spans="1:37">
+    <row r="36" spans="1:42">
       <c r="A36" s="5">
         <v>33</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C36" s="1">
         <v>33</v>
@@ -4295,10 +4805,10 @@
         <v>12.3758</v>
       </c>
       <c r="I36" s="2">
-        <v>12.3855</v>
+        <v>12.3878</v>
       </c>
       <c r="J36" s="2">
-        <v>12.4938</v>
+        <v>12.4939</v>
       </c>
       <c r="K36" s="2">
         <v>12.5639</v>
@@ -4381,13 +4891,28 @@
       <c r="AK36" s="2">
         <v>168545.4986</v>
       </c>
+      <c r="AL36" s="4">
+        <v>0.8047</v>
+      </c>
+      <c r="AM36" s="4">
+        <v>0.8293</v>
+      </c>
+      <c r="AN36" s="4">
+        <v>0.7971</v>
+      </c>
+      <c r="AO36" s="4">
+        <v>0.7927</v>
+      </c>
+      <c r="AP36" s="4">
+        <v>0.7909</v>
+      </c>
     </row>
-    <row r="37" spans="1:37">
+    <row r="37" spans="1:42">
       <c r="A37" s="5">
         <v>34</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C37" s="1">
         <v>34</v>
@@ -4408,7 +4933,7 @@
         <v>12.334</v>
       </c>
       <c r="I37" s="2">
-        <v>12.3058</v>
+        <v>12.3074</v>
       </c>
       <c r="J37" s="2">
         <v>12.4652</v>
@@ -4494,13 +5019,28 @@
       <c r="AK37" s="2">
         <v>160797.0587</v>
       </c>
+      <c r="AL37" s="4">
+        <v>0.842</v>
+      </c>
+      <c r="AM37" s="4">
+        <v>0.8436</v>
+      </c>
+      <c r="AN37" s="4">
+        <v>0.8334</v>
+      </c>
+      <c r="AO37" s="4">
+        <v>0.829</v>
+      </c>
+      <c r="AP37" s="4">
+        <v>0.8277</v>
+      </c>
     </row>
-    <row r="38" spans="1:37">
+    <row r="38" spans="1:42">
       <c r="A38" s="5">
         <v>35</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C38" s="1">
         <v>35</v>
@@ -4521,7 +5061,7 @@
         <v>12.2523</v>
       </c>
       <c r="I38" s="2">
-        <v>12.3205</v>
+        <v>12.3214</v>
       </c>
       <c r="J38" s="2">
         <v>12.3885</v>
@@ -4607,13 +5147,28 @@
       <c r="AK38" s="2">
         <v>153267.401</v>
       </c>
+      <c r="AL38" s="4">
+        <v>0.8476</v>
+      </c>
+      <c r="AM38" s="4">
+        <v>0.8697</v>
+      </c>
+      <c r="AN38" s="4">
+        <v>0.8383</v>
+      </c>
+      <c r="AO38" s="4">
+        <v>0.8345</v>
+      </c>
+      <c r="AP38" s="4">
+        <v>0.8336</v>
+      </c>
     </row>
-    <row r="39" spans="1:37">
+    <row r="39" spans="1:42">
       <c r="A39" s="5">
         <v>36</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C39" s="1">
         <v>36</v>
@@ -4634,7 +5189,7 @@
         <v>12.2194</v>
       </c>
       <c r="I39" s="2">
-        <v>12.3331</v>
+        <v>12.3339</v>
       </c>
       <c r="J39" s="2">
         <v>12.358</v>
@@ -4720,13 +5275,28 @@
       <c r="AK39" s="2">
         <v>151344.774</v>
       </c>
+      <c r="AL39" s="4">
+        <v>0.8387</v>
+      </c>
+      <c r="AM39" s="4">
+        <v>0.8702</v>
+      </c>
+      <c r="AN39" s="4">
+        <v>0.8293</v>
+      </c>
+      <c r="AO39" s="4">
+        <v>0.8264</v>
+      </c>
+      <c r="AP39" s="4">
+        <v>0.8256</v>
+      </c>
     </row>
-    <row r="40" spans="1:37">
+    <row r="40" spans="1:42">
       <c r="A40" s="5">
         <v>37</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C40" s="1">
         <v>37</v>
@@ -4747,7 +5317,7 @@
         <v>12.1731</v>
       </c>
       <c r="I40" s="2">
-        <v>12.2662</v>
+        <v>12.2668</v>
       </c>
       <c r="J40" s="2">
         <v>12.3158</v>
@@ -4833,13 +5403,28 @@
       <c r="AK40" s="2">
         <v>144584.7336</v>
       </c>
+      <c r="AL40" s="4">
+        <v>0.8675</v>
+      </c>
+      <c r="AM40" s="4">
+        <v>0.8841</v>
+      </c>
+      <c r="AN40" s="4">
+        <v>0.8575</v>
+      </c>
+      <c r="AO40" s="4">
+        <v>0.8552999999999999</v>
+      </c>
+      <c r="AP40" s="4">
+        <v>0.8545</v>
+      </c>
     </row>
-    <row r="41" spans="1:37">
+    <row r="41" spans="1:42">
       <c r="A41" s="5">
         <v>38</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C41" s="1">
         <v>38</v>
@@ -4860,7 +5445,7 @@
         <v>12.1141</v>
       </c>
       <c r="I41" s="2">
-        <v>12.2538</v>
+        <v>12.2544</v>
       </c>
       <c r="J41" s="2">
         <v>12.2517</v>
@@ -4946,13 +5531,28 @@
       <c r="AK41" s="2">
         <v>138091.8587</v>
       </c>
+      <c r="AL41" s="4">
+        <v>0.869</v>
+      </c>
+      <c r="AM41" s="4">
+        <v>0.9048</v>
+      </c>
+      <c r="AN41" s="4">
+        <v>0.8592</v>
+      </c>
+      <c r="AO41" s="4">
+        <v>0.8575</v>
+      </c>
+      <c r="AP41" s="4">
+        <v>0.8569</v>
+      </c>
     </row>
-    <row r="42" spans="1:37">
+    <row r="42" spans="1:42">
       <c r="A42" s="5">
         <v>39</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C42" s="1">
         <v>39</v>
@@ -4973,7 +5573,7 @@
         <v>12.0627</v>
       </c>
       <c r="I42" s="2">
-        <v>12.2017</v>
+        <v>12.2021</v>
       </c>
       <c r="J42" s="2">
         <v>12.1927</v>
@@ -5059,13 +5659,28 @@
       <c r="AK42" s="2">
         <v>145321.4849</v>
       </c>
+      <c r="AL42" s="4">
+        <v>0.8542999999999999</v>
+      </c>
+      <c r="AM42" s="4">
+        <v>0.892</v>
+      </c>
+      <c r="AN42" s="4">
+        <v>0.8452</v>
+      </c>
+      <c r="AO42" s="4">
+        <v>0.8439</v>
+      </c>
+      <c r="AP42" s="4">
+        <v>0.8434</v>
+      </c>
     </row>
-    <row r="43" spans="1:37">
+    <row r="43" spans="1:42">
       <c r="A43" s="5">
         <v>40</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C43" s="1">
         <v>40</v>
@@ -5086,7 +5701,7 @@
         <v>12.0178</v>
       </c>
       <c r="I43" s="2">
-        <v>12.117</v>
+        <v>12.1173</v>
       </c>
       <c r="J43" s="2">
         <v>12.1475</v>
@@ -5172,13 +5787,28 @@
       <c r="AK43" s="2">
         <v>138840.2648</v>
       </c>
+      <c r="AL43" s="4">
+        <v>0.887</v>
+      </c>
+      <c r="AM43" s="4">
+        <v>0.9043</v>
+      </c>
+      <c r="AN43" s="4">
+        <v>0.8778</v>
+      </c>
+      <c r="AO43" s="4">
+        <v>0.8769</v>
+      </c>
+      <c r="AP43" s="4">
+        <v>0.8764999999999999</v>
+      </c>
     </row>
-    <row r="44" spans="1:37">
+    <row r="44" spans="1:42">
       <c r="A44" s="5">
         <v>41</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C44" s="1">
         <v>41</v>
@@ -5199,7 +5829,7 @@
         <v>11.9451</v>
       </c>
       <c r="I44" s="2">
-        <v>12.0898</v>
+        <v>12.0901</v>
       </c>
       <c r="J44" s="2">
         <v>12.0659</v>
@@ -5285,13 +5915,28 @@
       <c r="AK44" s="2">
         <v>132471.8719</v>
       </c>
+      <c r="AL44" s="4">
+        <v>0.8837</v>
+      </c>
+      <c r="AM44" s="4">
+        <v>0.9236</v>
+      </c>
+      <c r="AN44" s="4">
+        <v>0.8749</v>
+      </c>
+      <c r="AO44" s="4">
+        <v>0.8744</v>
+      </c>
+      <c r="AP44" s="4">
+        <v>0.8741</v>
+      </c>
     </row>
-    <row r="45" spans="1:37">
+    <row r="45" spans="1:42">
       <c r="A45" s="5">
         <v>42</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C45" s="1">
         <v>42</v>
@@ -5312,7 +5957,7 @@
         <v>11.907</v>
       </c>
       <c r="I45" s="2">
-        <v>12.0605</v>
+        <v>12.0607</v>
       </c>
       <c r="J45" s="2">
         <v>12.0172</v>
@@ -5398,13 +6043,28 @@
       <c r="AK45" s="2">
         <v>137023.9613</v>
       </c>
+      <c r="AL45" s="4">
+        <v>0.8974</v>
+      </c>
+      <c r="AM45" s="4">
+        <v>0.9421</v>
+      </c>
+      <c r="AN45" s="4">
+        <v>0.8892</v>
+      </c>
+      <c r="AO45" s="4">
+        <v>0.8887</v>
+      </c>
+      <c r="AP45" s="4">
+        <v>0.8885999999999999</v>
+      </c>
     </row>
-    <row r="46" spans="1:37">
+    <row r="46" spans="1:42">
       <c r="A46" s="5">
         <v>43</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C46" s="1">
         <v>43</v>
@@ -5425,7 +6085,7 @@
         <v>11.8726</v>
       </c>
       <c r="I46" s="2">
-        <v>12.0322</v>
+        <v>12.0323</v>
       </c>
       <c r="J46" s="2">
         <v>11.9714</v>
@@ -5511,13 +6171,28 @@
       <c r="AK46" s="2">
         <v>130920.2251</v>
       </c>
+      <c r="AL46" s="4">
+        <v>0.9520999999999999</v>
+      </c>
+      <c r="AM46" s="4">
+        <v>1.0033</v>
+      </c>
+      <c r="AN46" s="4">
+        <v>0.9444</v>
+      </c>
+      <c r="AO46" s="4">
+        <v>0.9441000000000001</v>
+      </c>
+      <c r="AP46" s="4">
+        <v>0.944</v>
+      </c>
     </row>
-    <row r="47" spans="1:37">
+    <row r="47" spans="1:42">
       <c r="A47" s="5">
         <v>44</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C47" s="1">
         <v>44</v>
@@ -5538,7 +6213,7 @@
         <v>11.8282</v>
       </c>
       <c r="I47" s="2">
-        <v>12.0125</v>
+        <v>12.0137</v>
       </c>
       <c r="J47" s="2">
         <v>11.9087</v>
@@ -5624,13 +6299,28 @@
       <c r="AK47" s="2">
         <v>125192.0349</v>
       </c>
+      <c r="AL47" s="4">
+        <v>0.9728</v>
+      </c>
+      <c r="AM47" s="4">
+        <v>1.0743</v>
+      </c>
+      <c r="AN47" s="4">
+        <v>0.9661999999999999</v>
+      </c>
+      <c r="AO47" s="4">
+        <v>0.966</v>
+      </c>
+      <c r="AP47" s="4">
+        <v>0.9659</v>
+      </c>
     </row>
-    <row r="48" spans="1:37">
+    <row r="48" spans="1:42">
       <c r="A48" s="5">
         <v>45</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C48" s="1">
         <v>45</v>
@@ -5651,7 +6341,7 @@
         <v>11.8042</v>
       </c>
       <c r="I48" s="2">
-        <v>11.9762</v>
+        <v>11.9781</v>
       </c>
       <c r="J48" s="2">
         <v>11.8629</v>
@@ -5737,13 +6427,28 @@
       <c r="AK48" s="2">
         <v>146779.407</v>
       </c>
+      <c r="AL48" s="4">
+        <v>0.9227</v>
+      </c>
+      <c r="AM48" s="4">
+        <v>1.0584</v>
+      </c>
+      <c r="AN48" s="4">
+        <v>0.9183</v>
+      </c>
+      <c r="AO48" s="4">
+        <v>0.918</v>
+      </c>
+      <c r="AP48" s="4">
+        <v>0.9179</v>
+      </c>
     </row>
-    <row r="49" spans="1:37">
+    <row r="49" spans="1:42">
       <c r="A49" s="5">
         <v>46</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C49" s="1">
         <v>46</v>
@@ -5764,7 +6469,7 @@
         <v>11.7639</v>
       </c>
       <c r="I49" s="2">
-        <v>11.8697</v>
+        <v>11.8714</v>
       </c>
       <c r="J49" s="2">
         <v>11.8148</v>
@@ -5850,13 +6555,28 @@
       <c r="AK49" s="2">
         <v>141222.5102</v>
       </c>
+      <c r="AL49" s="4">
+        <v>0.9923</v>
+      </c>
+      <c r="AM49" s="4">
+        <v>1.0718</v>
+      </c>
+      <c r="AN49" s="4">
+        <v>0.9885</v>
+      </c>
+      <c r="AO49" s="4">
+        <v>0.9883999999999999</v>
+      </c>
+      <c r="AP49" s="4">
+        <v>0.9883</v>
+      </c>
     </row>
-    <row r="50" spans="1:37">
+    <row r="50" spans="1:42">
       <c r="A50" s="5">
         <v>47</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C50" s="1">
         <v>47</v>
@@ -5877,7 +6597,7 @@
         <v>11.7099</v>
       </c>
       <c r="I50" s="2">
-        <v>11.8323</v>
+        <v>11.8346</v>
       </c>
       <c r="J50" s="2">
         <v>11.7501</v>
@@ -5963,13 +6683,28 @@
       <c r="AK50" s="2">
         <v>135919.7639</v>
       </c>
+      <c r="AL50" s="4">
+        <v>0.9923</v>
+      </c>
+      <c r="AM50" s="4">
+        <v>1.1383</v>
+      </c>
+      <c r="AN50" s="4">
+        <v>0.9974</v>
+      </c>
+      <c r="AO50" s="4">
+        <v>0.989</v>
+      </c>
+      <c r="AP50" s="4">
+        <v>0.989</v>
+      </c>
     </row>
-    <row r="51" spans="1:37">
+    <row r="51" spans="1:42">
       <c r="A51" s="5">
         <v>48</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C51" s="1">
         <v>48</v>
@@ -5990,10 +6725,10 @@
         <v>11.6832</v>
       </c>
       <c r="I51" s="2">
-        <v>11.7794</v>
+        <v>11.7826</v>
       </c>
       <c r="J51" s="2">
-        <v>11.702</v>
+        <v>11.7027</v>
       </c>
       <c r="K51" s="2">
         <v>11.7006</v>
@@ -6076,13 +6811,28 @@
       <c r="AK51" s="2">
         <v>153315.4757</v>
       </c>
+      <c r="AL51" s="4">
+        <v>0.9665</v>
+      </c>
+      <c r="AM51" s="4">
+        <v>1.1513</v>
+      </c>
+      <c r="AN51" s="4">
+        <v>1.0047</v>
+      </c>
+      <c r="AO51" s="4">
+        <v>0.965</v>
+      </c>
+      <c r="AP51" s="4">
+        <v>0.965</v>
+      </c>
     </row>
-    <row r="52" spans="1:37">
+    <row r="52" spans="1:42">
       <c r="A52" s="5">
         <v>49</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C52" s="1">
         <v>49</v>
@@ -6103,10 +6853,10 @@
         <v>11.6369</v>
       </c>
       <c r="I52" s="2">
-        <v>11.7036</v>
+        <v>11.7066</v>
       </c>
       <c r="J52" s="2">
-        <v>11.6354</v>
+        <v>11.6361</v>
       </c>
       <c r="K52" s="2">
         <v>11.6474</v>
@@ -6189,13 +6939,28 @@
       <c r="AK52" s="2">
         <v>148500.3567</v>
       </c>
+      <c r="AL52" s="4">
+        <v>0.9735</v>
+      </c>
+      <c r="AM52" s="4">
+        <v>1.127</v>
+      </c>
+      <c r="AN52" s="4">
+        <v>0.983</v>
+      </c>
+      <c r="AO52" s="4">
+        <v>0.9733000000000001</v>
+      </c>
+      <c r="AP52" s="4">
+        <v>0.9733000000000001</v>
+      </c>
     </row>
-    <row r="53" spans="1:37">
+    <row r="53" spans="1:42">
       <c r="A53" s="5">
         <v>50</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C53" s="1">
         <v>50</v>
@@ -6216,10 +6981,10 @@
         <v>11.5598</v>
       </c>
       <c r="I53" s="2">
-        <v>11.6128</v>
+        <v>11.6156</v>
       </c>
       <c r="J53" s="2">
-        <v>11.5534</v>
+        <v>11.554</v>
       </c>
       <c r="K53" s="2">
         <v>11.5678</v>
@@ -6302,13 +7067,28 @@
       <c r="AK53" s="2">
         <v>143864.6888</v>
       </c>
+      <c r="AL53" s="4">
+        <v>0.9592000000000001</v>
+      </c>
+      <c r="AM53" s="4">
+        <v>1.1125</v>
+      </c>
+      <c r="AN53" s="4">
+        <v>0.971</v>
+      </c>
+      <c r="AO53" s="4">
+        <v>0.9585</v>
+      </c>
+      <c r="AP53" s="4">
+        <v>0.9585</v>
+      </c>
     </row>
-    <row r="54" spans="1:37">
+    <row r="54" spans="1:42">
       <c r="A54" s="5">
         <v>51</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C54" s="1">
         <v>51</v>
@@ -6329,10 +7109,10 @@
         <v>11.5087</v>
       </c>
       <c r="I54" s="2">
-        <v>11.5504</v>
+        <v>11.5531</v>
       </c>
       <c r="J54" s="2">
-        <v>11.4971</v>
+        <v>11.4978</v>
       </c>
       <c r="K54" s="2">
         <v>11.5127</v>
@@ -6415,13 +7195,28 @@
       <c r="AK54" s="2">
         <v>145701.5278</v>
       </c>
+      <c r="AL54" s="4">
+        <v>0.9212</v>
+      </c>
+      <c r="AM54" s="4">
+        <v>1.0866</v>
+      </c>
+      <c r="AN54" s="4">
+        <v>0.9424</v>
+      </c>
+      <c r="AO54" s="4">
+        <v>0.9209000000000001</v>
+      </c>
+      <c r="AP54" s="4">
+        <v>0.9209000000000001</v>
+      </c>
     </row>
-    <row r="55" spans="1:37">
+    <row r="55" spans="1:42">
       <c r="A55" s="5">
         <v>52</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C55" s="1">
         <v>52</v>
@@ -6442,10 +7237,10 @@
         <v>11.4417</v>
       </c>
       <c r="I55" s="2">
-        <v>11.4428</v>
+        <v>11.4452</v>
       </c>
       <c r="J55" s="2">
-        <v>11.4115</v>
+        <v>11.4123</v>
       </c>
       <c r="K55" s="2">
         <v>11.4533</v>
@@ -6528,13 +7323,28 @@
       <c r="AK55" s="2">
         <v>141549.8882</v>
       </c>
+      <c r="AL55" s="4">
+        <v>0.8778</v>
+      </c>
+      <c r="AM55" s="4">
+        <v>0.9991</v>
+      </c>
+      <c r="AN55" s="4">
+        <v>0.88</v>
+      </c>
+      <c r="AO55" s="4">
+        <v>0.8771</v>
+      </c>
+      <c r="AP55" s="4">
+        <v>0.8771</v>
+      </c>
     </row>
-    <row r="56" spans="1:37">
+    <row r="56" spans="1:42">
       <c r="A56" s="5">
         <v>53</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C56" s="1">
         <v>53</v>
@@ -6555,10 +7365,10 @@
         <v>11.3507</v>
       </c>
       <c r="I56" s="2">
-        <v>11.2901</v>
+        <v>11.2923</v>
       </c>
       <c r="J56" s="2">
-        <v>11.3318</v>
+        <v>11.3327</v>
       </c>
       <c r="K56" s="2">
         <v>11.3765</v>
@@ -6641,13 +7451,28 @@
       <c r="AK56" s="2">
         <v>137124.1533</v>
       </c>
+      <c r="AL56" s="4">
+        <v>0.928</v>
+      </c>
+      <c r="AM56" s="4">
+        <v>1.0012</v>
+      </c>
+      <c r="AN56" s="4">
+        <v>0.9294</v>
+      </c>
+      <c r="AO56" s="4">
+        <v>0.9258999999999999</v>
+      </c>
+      <c r="AP56" s="4">
+        <v>0.9258</v>
+      </c>
     </row>
-    <row r="57" spans="1:37">
+    <row r="57" spans="1:42">
       <c r="A57" s="5">
         <v>54</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C57" s="1">
         <v>54</v>
@@ -6668,10 +7493,10 @@
         <v>11.3058</v>
       </c>
       <c r="I57" s="2">
-        <v>11.2803</v>
+        <v>11.2842</v>
       </c>
       <c r="J57" s="2">
-        <v>11.2834</v>
+        <v>11.2843</v>
       </c>
       <c r="K57" s="2">
         <v>11.3287</v>
@@ -6754,13 +7579,28 @@
       <c r="AK57" s="2">
         <v>132464.4406</v>
       </c>
+      <c r="AL57" s="4">
+        <v>0.9517</v>
+      </c>
+      <c r="AM57" s="4">
+        <v>1.0776</v>
+      </c>
+      <c r="AN57" s="4">
+        <v>0.9535</v>
+      </c>
+      <c r="AO57" s="4">
+        <v>0.9498</v>
+      </c>
+      <c r="AP57" s="4">
+        <v>0.9496</v>
+      </c>
     </row>
-    <row r="58" spans="1:37">
+    <row r="58" spans="1:42">
       <c r="A58" s="5">
         <v>55</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C58" s="1">
         <v>55</v>
@@ -6781,10 +7621,10 @@
         <v>11.2825</v>
       </c>
       <c r="I58" s="2">
-        <v>11.2611</v>
+        <v>11.2652</v>
       </c>
       <c r="J58" s="2">
-        <v>11.2572</v>
+        <v>11.258</v>
       </c>
       <c r="K58" s="2">
         <v>11.3015</v>
@@ -6867,13 +7707,28 @@
       <c r="AK58" s="2">
         <v>127736.6818</v>
       </c>
+      <c r="AL58" s="4">
+        <v>0.9667</v>
+      </c>
+      <c r="AM58" s="4">
+        <v>1.1116</v>
+      </c>
+      <c r="AN58" s="4">
+        <v>0.9688</v>
+      </c>
+      <c r="AO58" s="4">
+        <v>0.9651</v>
+      </c>
+      <c r="AP58" s="4">
+        <v>0.965</v>
+      </c>
     </row>
-    <row r="59" spans="1:37">
+    <row r="59" spans="1:42">
       <c r="A59" s="5">
         <v>56</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C59" s="1">
         <v>56</v>
@@ -6894,10 +7749,10 @@
         <v>11.2539</v>
       </c>
       <c r="I59" s="2">
-        <v>11.228</v>
+        <v>11.232</v>
       </c>
       <c r="J59" s="2">
-        <v>11.2241</v>
+        <v>11.2249</v>
       </c>
       <c r="K59" s="2">
         <v>11.2675</v>
@@ -6980,13 +7835,28 @@
       <c r="AK59" s="2">
         <v>123272.1817</v>
       </c>
+      <c r="AL59" s="4">
+        <v>0.9167</v>
+      </c>
+      <c r="AM59" s="4">
+        <v>1.0741</v>
+      </c>
+      <c r="AN59" s="4">
+        <v>0.9229000000000001</v>
+      </c>
+      <c r="AO59" s="4">
+        <v>0.9156</v>
+      </c>
+      <c r="AP59" s="4">
+        <v>0.9155</v>
+      </c>
     </row>
-    <row r="60" spans="1:37">
+    <row r="60" spans="1:42">
       <c r="A60" s="5">
         <v>57</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C60" s="1">
         <v>57</v>
@@ -7007,10 +7877,10 @@
         <v>11.2026</v>
       </c>
       <c r="I60" s="2">
-        <v>11.1301</v>
+        <v>11.1337</v>
       </c>
       <c r="J60" s="2">
-        <v>11.1694</v>
+        <v>11.1701</v>
       </c>
       <c r="K60" s="2">
         <v>11.2191</v>
@@ -7093,13 +7963,28 @@
       <c r="AK60" s="2">
         <v>147805.9248</v>
       </c>
+      <c r="AL60" s="4">
+        <v>0.8589</v>
+      </c>
+      <c r="AM60" s="4">
+        <v>0.9605</v>
+      </c>
+      <c r="AN60" s="4">
+        <v>0.8614000000000001</v>
+      </c>
+      <c r="AO60" s="4">
+        <v>0.8577</v>
+      </c>
+      <c r="AP60" s="4">
+        <v>0.8576</v>
+      </c>
     </row>
-    <row r="61" spans="1:37">
+    <row r="61" spans="1:42">
       <c r="A61" s="5">
         <v>58</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C61" s="1">
         <v>58</v>
@@ -7120,10 +8005,10 @@
         <v>11.1428</v>
       </c>
       <c r="I61" s="2">
-        <v>10.9846</v>
+        <v>10.9879</v>
       </c>
       <c r="J61" s="2">
-        <v>11.1191</v>
+        <v>11.1198</v>
       </c>
       <c r="K61" s="2">
         <v>11.1699</v>
@@ -7206,13 +8091,28 @@
       <c r="AK61" s="2">
         <v>143011.8388</v>
       </c>
+      <c r="AL61" s="4">
+        <v>0.8594000000000001</v>
+      </c>
+      <c r="AM61" s="4">
+        <v>0.8996</v>
+      </c>
+      <c r="AN61" s="4">
+        <v>0.8617</v>
+      </c>
+      <c r="AO61" s="4">
+        <v>0.8578</v>
+      </c>
+      <c r="AP61" s="4">
+        <v>0.8578</v>
+      </c>
     </row>
-    <row r="62" spans="1:37">
+    <row r="62" spans="1:42">
       <c r="A62" s="5">
         <v>59</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C62" s="1">
         <v>59</v>
@@ -7233,10 +8133,10 @@
         <v>10.9948</v>
       </c>
       <c r="I62" s="2">
-        <v>10.8508</v>
+        <v>10.8537</v>
       </c>
       <c r="J62" s="2">
-        <v>10.9848</v>
+        <v>10.9854</v>
       </c>
       <c r="K62" s="2">
         <v>11.0318</v>
@@ -7319,13 +8219,28 @@
       <c r="AK62" s="2">
         <v>137930.2038</v>
       </c>
+      <c r="AL62" s="4">
+        <v>0.8711</v>
+      </c>
+      <c r="AM62" s="4">
+        <v>0.9028</v>
+      </c>
+      <c r="AN62" s="4">
+        <v>0.8719</v>
+      </c>
+      <c r="AO62" s="4">
+        <v>0.8682</v>
+      </c>
+      <c r="AP62" s="4">
+        <v>0.8682</v>
+      </c>
     </row>
-    <row r="63" spans="1:37">
+    <row r="63" spans="1:42">
       <c r="A63" s="5">
         <v>60</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C63" s="1">
         <v>60</v>
@@ -7346,10 +8261,10 @@
         <v>10.9677</v>
       </c>
       <c r="I63" s="2">
-        <v>10.8775</v>
+        <v>10.8816</v>
       </c>
       <c r="J63" s="2">
-        <v>10.9538</v>
+        <v>10.9544</v>
       </c>
       <c r="K63" s="2">
         <v>10.9983</v>
@@ -7432,9 +8347,24 @@
       <c r="AK63" s="2">
         <v>132690.1735</v>
       </c>
+      <c r="AL63" s="4">
+        <v>0.8753</v>
+      </c>
+      <c r="AM63" s="4">
+        <v>0.9422</v>
+      </c>
+      <c r="AN63" s="4">
+        <v>0.8764</v>
+      </c>
+      <c r="AO63" s="4">
+        <v>0.8729</v>
+      </c>
+      <c r="AP63" s="4">
+        <v>0.8728</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="D1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -7443,6 +8373,7 @@
     <mergeCell ref="W1:AA1"/>
     <mergeCell ref="AB1:AF1"/>
     <mergeCell ref="AG1:AK1"/>
+    <mergeCell ref="AL1:AP1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7450,13 +8381,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" customWidth="1"/>
+    <col min="1" max="1" width="12.7109375" customWidth="1"/>
     <col min="2" max="2" width="8.7109375" customWidth="1"/>
     <col min="3" max="3" width="12.7109375" customWidth="1"/>
     <col min="4" max="4" width="12.7109375" customWidth="1"/>
@@ -7470,24 +8401,24 @@
         <v>1</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:7" s="2" customFormat="1">
       <c r="A2" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B2" s="2">
         <v>11.1876</v>
@@ -7501,16 +8432,16 @@
         <v>12.4699</v>
       </c>
       <c r="D3" s="2">
-        <v>12.3025</v>
+        <v>12.3078</v>
       </c>
       <c r="E3" s="2">
-        <v>12.3708</v>
+        <v>12.3743</v>
       </c>
       <c r="F3" s="2">
-        <v>12.461</v>
+        <v>12.4632</v>
       </c>
       <c r="G3" s="2">
-        <v>12.5431</v>
+        <v>12.5443</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="3" customFormat="1">
@@ -7620,6 +8551,26 @@
       </c>
       <c r="G8" s="2">
         <v>189073.3105</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" s="4" customFormat="1">
+      <c r="A9" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="4">
+        <v>0.9019</v>
+      </c>
+      <c r="D9" s="4">
+        <v>1.0607</v>
+      </c>
+      <c r="E9" s="4">
+        <v>0.9581</v>
+      </c>
+      <c r="F9" s="4">
+        <v>0.9134</v>
+      </c>
+      <c r="G9" s="4">
+        <v>0.8974</v>
       </c>
     </row>
   </sheetData>
